--- a/Excel/Trilha Excel/Fórmulas/17_ÍNDICE com CORRESP (Parte 2).xlsx
+++ b/Excel/Trilha Excel/Fórmulas/17_ÍNDICE com CORRESP (Parte 2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0a2f4a81bc3d9dd/Documentos/GitHub/Hashtag_AnaliseDados/Excel/Trilha Excel/Fórmulas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{054411AA-0B96-4D3A-8D55-E3DF758BE481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A968A3D-3416-4FCE-BD79-0A038F3E30D7}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{054411AA-0B96-4D3A-8D55-E3DF758BE481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0305E881-3999-4872-917C-61D493042609}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercício" sheetId="2" r:id="rId1"/>
@@ -266,6 +266,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -567,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1809EF98-FC10-4422-B0BD-9E97AD3F071B}">
   <dimension ref="A1:K1674"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -610,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="K1" s="9">
-        <v>348686</v>
+        <v>756274</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -673,9 +677,9 @@
       <c r="J3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="5" t="e">
-        <f>INDEX(B2:H1672,MATCH(K1,A2:A1672,0),MATCH(K2,B2:H1672,0))</f>
-        <v>#N/A</v>
+      <c r="K3" s="5" t="str">
+        <f>INDEX($B$2:$H$1672,MATCH($K$1,$A$2:$A$1672,0),MATCH($K$2,$B$1:$H$1,0))</f>
+        <v>sim</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
